--- a/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>KRT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,168 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>75700</v>
+      </c>
+      <c r="F8" s="3">
         <v>70400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>76300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>148800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>56300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>60200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>60000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>48400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>175400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F9" s="3">
         <v>51100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>53300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>102000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>41400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>43700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>43000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>35800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F10" s="3">
         <v>19300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>23000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>46800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>14900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>16500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>17000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>12600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F17" s="3">
         <v>68300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>69300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>130200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>55300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>58800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>57400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>47600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F18" s="3">
         <v>2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>18600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4500</v>
+        <v>13400</v>
       </c>
       <c r="E21" s="3">
         <v>9100</v>
       </c>
       <c r="F21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H21" s="3">
         <v>22400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>6400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>14500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2900</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>10500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>12500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>12500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>12500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,124 +1771,154 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F43" s="3">
         <v>23800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>23500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>23000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>21700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>22000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>46100</v>
+      </c>
+      <c r="F44" s="3">
         <v>49000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>48600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>43700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>35400</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>38900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F45" s="3">
         <v>6500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F46" s="3">
         <v>79800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>79600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>73000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>61000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>67500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,52 +1946,64 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>93900</v>
+      </c>
+      <c r="F48" s="3">
         <v>95500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>96600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>88500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>59000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>44000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F49" s="3">
         <v>3100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>13300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>21900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>176900</v>
+      </c>
+      <c r="F54" s="3">
         <v>181100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>180700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>170800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>133400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>133300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,54 +2225,62 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F57" s="3">
         <v>20100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>19900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>16200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>19000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>19100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F58" s="3">
         <v>11700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>11100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>10800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>7200</v>
@@ -2020,127 +2288,157 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F59" s="3">
         <v>11400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>15700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>7000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F60" s="3">
         <v>43100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>46700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>39800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>35900</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>33300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>84500</v>
+      </c>
+      <c r="F61" s="3">
         <v>86900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>88100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>89200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>68000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>70800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F62" s="3">
         <v>11200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>7700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>8000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>4800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>142700</v>
+      </c>
+      <c r="F66" s="3">
         <v>148700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>149300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>143200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>117600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>117700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,25 +2726,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F72" s="3">
         <v>18700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>17700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>13700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I72" s="3">
         <v>1700</v>
@@ -2410,11 +2758,17 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,25 +2866,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F76" s="3">
         <v>32400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>31500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>27600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>15700</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I76" s="3">
         <v>15700</v>
@@ -2526,11 +2898,17 @@
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3">
+        <v>15700</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>12500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2643,28 +3041,34 @@
         <v>2500</v>
       </c>
       <c r="E83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G83" s="3">
         <v>2200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>8700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>6300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-12500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-27400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-16300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-10500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-31000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>2500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-17000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>24000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>14300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>13200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>KRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E8" s="3">
         <v>94500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>75700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>70400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>76300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>148800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>56300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>60200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>60000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>175400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E9" s="3">
         <v>66400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>54000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>51100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>53300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>102000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>43700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E10" s="3">
         <v>28100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>46800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,22 +939,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-5000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>87700</v>
+        <v>97300</v>
       </c>
       <c r="E17" s="3">
+        <v>82700</v>
+      </c>
+      <c r="F17" s="3">
         <v>71900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>68300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>69300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>130200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>58800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>47600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6800</v>
+        <v>5400</v>
       </c>
       <c r="E18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1110,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13400</v>
+        <v>7900</v>
       </c>
       <c r="E21" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F21" s="3">
         <v>9100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>10900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2900</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>9300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>9600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>9600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>9600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>7700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,148 +1867,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E43" s="3">
         <v>32600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>22000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E44" s="3">
         <v>62200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>46100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>49000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>48600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>43700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>35400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>38900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3400</v>
+        <v>5700</v>
       </c>
       <c r="E45" s="3">
         <v>3400</v>
       </c>
       <c r="F45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G45" s="3">
         <v>6500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100900</v>
+      </c>
+      <c r="E46" s="3">
         <v>106000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>76000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>79800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>79600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>73000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>61000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
         <v>67500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,43 +2057,49 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E48" s="3">
         <v>92900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>93900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>95500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>96600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>88500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>59000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>44000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1999,13 +2110,13 @@
         <v>3900</v>
       </c>
       <c r="F49" s="3">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="G49" s="3">
         <v>3100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+      <c r="H49" s="3">
+        <v>3100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>4300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>21900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E54" s="3">
         <v>207100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>176900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>181100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>180700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>170800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>133400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>133300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E57" s="3">
         <v>24400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>19100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>4300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>7200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>7000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E60" s="3">
         <v>40100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>39600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>39800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3">
         <v>33300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E61" s="3">
         <v>36500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>84500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>86900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>88100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>89200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>68000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>70800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E62" s="3">
         <v>10400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>4800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E66" s="3">
         <v>95500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>142700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>148700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>149300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>143200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>117700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E72" s="3">
         <v>30000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>1700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E76" s="3">
         <v>111600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>15700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>9600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3047,28 +3246,31 @@
         <v>2500</v>
       </c>
       <c r="G83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H83" s="3">
         <v>2200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-3200</v>
       </c>
       <c r="G94" s="3">
         <v>-3200</v>
       </c>
       <c r="H94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-31000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E100" s="3">
         <v>16700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>6700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>KRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E8" s="3">
         <v>102700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>94500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>75700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>70400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>76300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>148800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>56300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>60200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>60000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>175400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E9" s="3">
         <v>72900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>66400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>54000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>51100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>53300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>102000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>35800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E10" s="3">
         <v>29800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>46800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,11 +958,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-5000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -956,8 +975,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -968,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E17" s="3">
         <v>97300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>82700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>71900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>68300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>69300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>130200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>55300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>47600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E18" s="3">
         <v>5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,189 +1153,204 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E21" s="3">
         <v>7900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E23" s="3">
         <v>5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2900</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E27" s="3">
         <v>3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,75 +1645,81 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E33" s="3">
         <v>3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E35" s="3">
         <v>3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,160 +1959,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E43" s="3">
         <v>33300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>22000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E44" s="3">
         <v>60200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>62200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>46100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>49000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>48600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>43700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>35400</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>38900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3400</v>
       </c>
       <c r="F45" s="3">
         <v>3400</v>
       </c>
       <c r="G45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H45" s="3">
         <v>6500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E46" s="3">
         <v>100900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>106000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>76000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>79800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>79600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>73000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>61000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>67500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,46 +2164,52 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E48" s="3">
         <v>94000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>92900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>93900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>95500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>96600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>88500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>59000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>44000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2113,13 +2223,13 @@
         <v>3900</v>
       </c>
       <c r="G49" s="3">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="H49" s="3">
         <v>3100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3">
+        <v>3100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>21900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>207600</v>
+      </c>
+      <c r="E54" s="3">
         <v>203500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>207100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>176900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>181100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>180700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>170800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>133400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>133300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2487,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E57" s="3">
         <v>19000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>19100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>7200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
         <v>12100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>7000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E60" s="3">
         <v>32500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>33300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E61" s="3">
         <v>35700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>84500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>86900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>88100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>89200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>68000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>70800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E62" s="3">
         <v>10200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>4800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E66" s="3">
         <v>87300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>95500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>142700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>148700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>149300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>143200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>117600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>117700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E72" s="3">
         <v>33800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>1700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E76" s="3">
         <v>116200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>111600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>15700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E81" s="3">
         <v>3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,13 +3428,14 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E83" s="3">
         <v>2500</v>
@@ -3249,28 +3447,31 @@
         <v>2500</v>
       </c>
       <c r="H83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I83" s="3">
         <v>2200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3200</v>
       </c>
       <c r="H94" s="3">
         <v>-3200</v>
       </c>
       <c r="I94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-31000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>24000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>KRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,219 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>105400</v>
+      </c>
+      <c r="F8" s="3">
         <v>91300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>102700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>94500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>75700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>70400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>76300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>148800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>56300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>60200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>60000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>48400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>175400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>71100</v>
+      </c>
+      <c r="F9" s="3">
         <v>63000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>72900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>66400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>54000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>51100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>53300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>102000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>41400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>43700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>43000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>35800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>34300</v>
+      </c>
+      <c r="F10" s="3">
         <v>28300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>29800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>28100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>21700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>19300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>23000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>46800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>14900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>16500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>17000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>12600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,26 +983,32 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-5000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
@@ -978,11 +1018,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -990,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>107100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>95900</v>
+      </c>
+      <c r="F17" s="3">
         <v>84200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>97300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>82700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>71900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>68300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>69300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>130200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>55300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>58800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>57400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>47600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F18" s="3">
         <v>7100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>11800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>18600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1210,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F21" s="3">
         <v>9600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>7900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>14200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>4500</v>
       </c>
       <c r="I21" s="3">
         <v>9100</v>
       </c>
       <c r="J21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L21" s="3">
         <v>22400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1237,120 +1317,138 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F23" s="3">
         <v>7100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>10900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>14500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2900</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F26" s="3">
         <v>6000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>9300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>10500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F27" s="3">
         <v>5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>9600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>12500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F33" s="3">
         <v>5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>12500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F35" s="3">
         <v>5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>12500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F41" s="3">
         <v>6500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,172 +2142,202 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F43" s="3">
         <v>32800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>33300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>32600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>25600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>23800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>23500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>23000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>21700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>22000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>77300</v>
+      </c>
+      <c r="F44" s="3">
         <v>58500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>60200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>62200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>46100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>49000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>48600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>43700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>35400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>38900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>133500</v>
+      </c>
+      <c r="F46" s="3">
         <v>102900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>106000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>76000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>79800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>79600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>73000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>61000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>67500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,49 +2377,61 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>92100</v>
+      </c>
+      <c r="F48" s="3">
         <v>93500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>94000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>92900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>93900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>95500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>96600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>88500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>59000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>44000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2226,17 +2448,17 @@
         <v>3900</v>
       </c>
       <c r="H49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J49" s="3">
         <v>3100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2565,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F52" s="3">
         <v>7400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>13300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>21900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>247200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>240400</v>
+      </c>
+      <c r="F54" s="3">
         <v>207600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>203500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>207100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>176900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>181100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>180700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>170800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>133400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>133300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,78 +2748,86 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F57" s="3">
         <v>18500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>19000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>24400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>17200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>20100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>19900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>16200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>19000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>19100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>12200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>11700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>11100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>10800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>7200</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>7200</v>
@@ -2567,175 +2835,205 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F59" s="3">
         <v>11100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>15700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>7000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F60" s="3">
         <v>30800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>32500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>40100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>39600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>43100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>46700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>39800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>35900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>33300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>52200</v>
+      </c>
+      <c r="F61" s="3">
         <v>35300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>35700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>36500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>84500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>86900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>88100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>89200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>68000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>70800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F62" s="3">
         <v>9500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>10400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>9900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>11200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>7700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>8000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>4800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>110200</v>
+      </c>
+      <c r="F66" s="3">
         <v>84700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>87300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>95500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>142700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>148700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>149300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>143200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>117600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>117700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,37 +3421,43 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>46100</v>
+      </c>
+      <c r="F72" s="3">
         <v>39400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>33800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>30000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>20400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>18700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>17700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>13700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M72" s="3">
         <v>1700</v>
@@ -3117,11 +3465,17 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,37 +3609,43 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>130200</v>
+      </c>
+      <c r="F76" s="3">
         <v>122900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>116200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>111600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>34200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>32400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>31500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>27600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>15700</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M76" s="3">
         <v>15700</v>
@@ -3281,11 +3653,17 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>15700</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F81" s="3">
         <v>5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>12500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3438,10 +3836,10 @@
         <v>2600</v>
       </c>
       <c r="E83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G83" s="3">
         <v>2500</v>
@@ -3450,28 +3848,34 @@
         <v>2500</v>
       </c>
       <c r="I83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K83" s="3">
         <v>2200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F89" s="3">
         <v>9900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>8700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-12500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-27400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-16300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-10500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-31000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>2500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-17000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-3600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>16700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>24000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>14300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>13200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>4800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>KRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E8" s="3">
         <v>114900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>105400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>91300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>102700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>94500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>75700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>70400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>148800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>56300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>60200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>60000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>48400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>175400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E9" s="3">
         <v>80900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>71100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>63000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>72900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>66400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>54000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>51100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>102000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>43700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>43000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E10" s="3">
         <v>34000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>46800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,29 +1006,32 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-5000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1044,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E17" s="3">
         <v>107100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>95900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>84200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>97300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>82700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>71900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>68300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>130200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>58800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>57400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>47600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E18" s="3">
         <v>7800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>1100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E21" s="3">
         <v>11500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1323,132 +1363,141 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E23" s="3">
         <v>8900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2900</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E26" s="3">
         <v>7200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>6300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1100</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-1100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E33" s="3">
         <v>6300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E35" s="3">
         <v>6300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2238,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E43" s="3">
         <v>38500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>22000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E44" s="3">
         <v>85500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>77300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>58500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>60200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>62200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>46100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>49000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>35400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>38900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3400</v>
       </c>
       <c r="I45" s="3">
         <v>3400</v>
       </c>
       <c r="J45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>124800</v>
+      </c>
+      <c r="E46" s="3">
         <v>134100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>133500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>106000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>76000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>79800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>79600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>61000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3">
         <v>67500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2488,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E48" s="3">
         <v>95000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>92100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>93500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>94000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>92900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>93900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>95500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>96600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>88500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>44000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2454,13 +2565,13 @@
         <v>3900</v>
       </c>
       <c r="J49" s="3">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="K49" s="3">
         <v>3100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>3100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E52" s="3">
         <v>14100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>21900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>239500</v>
+      </c>
+      <c r="E54" s="3">
         <v>247200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>240400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>207600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>203500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>207100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>176900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>181100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>180700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>170800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>133400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
         <v>133300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E57" s="3">
         <v>23300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>19100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,234 +2940,249 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F58" s="3">
         <v>1200</v>
       </c>
       <c r="G58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>7200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>7000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E60" s="3">
         <v>37400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>39800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3">
         <v>33300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E61" s="3">
         <v>53600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>52200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>84500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>86900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>88100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>89200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>68000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>70800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E62" s="3">
         <v>8600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>4800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E66" s="3">
         <v>110100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>110200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>84700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>87300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>142700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>148700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>149300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>143200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>117600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
         <v>117700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E72" s="3">
         <v>52400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>46100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>39400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>33800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>30000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>1700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>143800</v>
+      </c>
+      <c r="E76" s="3">
         <v>137100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>130200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>122900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>116200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>111600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>32400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
         <v>15700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E81" s="3">
         <v>6300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3842,7 +4041,7 @@
         <v>2600</v>
       </c>
       <c r="G83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H83" s="3">
         <v>2500</v>
@@ -3854,28 +4053,31 @@
         <v>2500</v>
       </c>
       <c r="K83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E89" s="3">
         <v>3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-800</v>
       </c>
       <c r="F91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-3200</v>
       </c>
       <c r="K94" s="3">
         <v>-3200</v>
       </c>
       <c r="L94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-31000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>16700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>13200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>KRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E8" s="3">
         <v>110000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>114900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>105400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>91300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>102700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>94500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>75700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>70400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>148800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>56300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>60200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>60000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>48400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>175400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E9" s="3">
         <v>75800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>80900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>71100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>63000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>72900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>66400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>54000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>102000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>43700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>43000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E10" s="3">
         <v>34200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>29800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>46800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,21 +1039,21 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-5000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1047,8 +1066,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E17" s="3">
         <v>102100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>107100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>95900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>84200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>97300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>82700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>71900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>69300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>130200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>57400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>47600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E18" s="3">
         <v>7900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,113 +1278,120 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1100</v>
       </c>
       <c r="F20" s="3">
         <v>1100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E21" s="3">
         <v>10700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>2000</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1366,138 +1405,147 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>8100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2900</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E26" s="3">
         <v>6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E27" s="3">
         <v>6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1100</v>
       </c>
       <c r="F32" s="3">
         <v>-1100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E33" s="3">
         <v>6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E35" s="3">
         <v>6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E43" s="3">
         <v>36700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>33300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>22000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E44" s="3">
         <v>73300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>85500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>77300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>58500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>60200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>62200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>46100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>49000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>35400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>38900</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E45" s="3">
         <v>7300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3400</v>
       </c>
       <c r="J45" s="3">
         <v>3400</v>
       </c>
       <c r="K45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E46" s="3">
         <v>124800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>134100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>133500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>106000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>76000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>79800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>79600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>73000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>61000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>67500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E48" s="3">
         <v>94300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>95000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>92100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>93500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>94000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>92900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>93900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>95500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>96600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>88500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>44000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2568,13 +2678,13 @@
         <v>3900</v>
       </c>
       <c r="K49" s="3">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="L49" s="3">
         <v>3100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>3100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E52" s="3">
         <v>16400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>21900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>252200</v>
+      </c>
+      <c r="E54" s="3">
         <v>239500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>247200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>240400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>207600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>203500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>207100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>176900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>181100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>180700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>170800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>133300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E57" s="3">
         <v>18900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>19100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
       </c>
       <c r="F58" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="G58" s="3">
         <v>1200</v>
       </c>
       <c r="H58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>7200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E59" s="3">
         <v>15000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>7000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E60" s="3">
         <v>34800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>37400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>33300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E61" s="3">
         <v>41800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>53600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>52200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>84500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>86900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>88100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>89200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>68000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>70800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E62" s="3">
         <v>8800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E66" s="3">
         <v>95600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>110100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>110200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>84700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>87300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>95500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>142700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>148700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>149300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>143200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>117600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>117700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E72" s="3">
         <v>58500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>46100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>39400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>1700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E76" s="3">
         <v>143800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>137100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>130200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>122900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>116200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>111600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>15700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E81" s="3">
         <v>6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4223,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E83" s="3">
         <v>2600</v>
@@ -4044,7 +4242,7 @@
         <v>2600</v>
       </c>
       <c r="H83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I83" s="3">
         <v>2500</v>
@@ -4056,28 +4254,31 @@
         <v>2500</v>
       </c>
       <c r="L83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M83" s="3">
         <v>2200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E89" s="3">
         <v>20200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-800</v>
       </c>
       <c r="F91" s="3">
         <v>-800</v>
       </c>
       <c r="G91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-3200</v>
       </c>
       <c r="L94" s="3">
         <v>-3200</v>
       </c>
       <c r="M94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N94" s="3">
         <v>-31000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>16700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>13200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E102" s="3">
         <v>4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>KRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>108700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>95800</v>
+      </c>
+      <c r="F8" s="3">
         <v>92700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>110000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>114900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>105400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>91300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>102700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>94500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>75700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>70400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>76300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>148800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>56300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>60200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>60000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>48400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>175400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>57700</v>
+      </c>
+      <c r="F9" s="3">
         <v>63000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>75800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>80900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>71100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>63000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>72900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>66400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>54000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>51100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>53300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>102000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>41400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>43700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>43000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>35800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F10" s="3">
         <v>29700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>34200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>34000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>34300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>28300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>29800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>28100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>21700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>19300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>23000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>46800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>14900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>16500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>17000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>12600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,38 +1062,44 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-5000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1069,11 +1109,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>83100</v>
+      </c>
+      <c r="F17" s="3">
         <v>87900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>102100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>107100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>95900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>84200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>97300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>82700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>71900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>68300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>69300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>130200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>55300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>58800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>57400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>47600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F18" s="3">
         <v>4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>7900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>7100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>11800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>18600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,126 +1345,140 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F21" s="3">
         <v>9600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>10700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>11500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>13200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>9600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>7900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>9100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>4500</v>
       </c>
       <c r="M21" s="3">
         <v>9100</v>
       </c>
       <c r="N21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P21" s="3">
         <v>22400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>6400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1408,144 +1488,162 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F23" s="3">
         <v>4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>8900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>10600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>10900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>14500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2900</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F26" s="3">
         <v>4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>10500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F27" s="3">
         <v>4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>6300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>6700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>12500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F33" s="3">
         <v>4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>6300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>6700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>12500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F35" s="3">
         <v>4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>6300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>6700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>12500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,84 +2399,92 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F41" s="3">
         <v>16000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2333,220 +2513,250 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F43" s="3">
         <v>29900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>36700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>38500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>43300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>32800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>33300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>32600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>25600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>23800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>23500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>23000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>21700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>22000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>70900</v>
+      </c>
+      <c r="F44" s="3">
         <v>71200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>73300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>85500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>77300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>58500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>60200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>62200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>46100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>49000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>48600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>43700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>35400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>38900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F45" s="3">
         <v>6600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>2400</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>141600</v>
+      </c>
+      <c r="F46" s="3">
         <v>123800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>124800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>134100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>133500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>102900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>100900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>106000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>76000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>79800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>79600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>73000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>61000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3">
         <v>67500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2808,73 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>114100</v>
+      </c>
+      <c r="F48" s="3">
         <v>111300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>94300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>95000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>92100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>93500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>94000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>92900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>93900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>95500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>96600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>88500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>59000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>44000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2681,17 +2903,17 @@
         <v>3900</v>
       </c>
       <c r="L49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N49" s="3">
         <v>3100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F52" s="3">
         <v>13200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>16400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>14100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>10800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>13300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>21900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>273300</v>
+      </c>
+      <c r="F54" s="3">
         <v>252200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>239500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>247200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>240400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>207600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>203500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>207100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>176900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>181100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>180700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>170800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>133400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>133300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F57" s="3">
         <v>18600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>18900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>23300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>24100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>18500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>19000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>24400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>17200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>20100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>19900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>16200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>19000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>19100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,40 +3341,40 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>12200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>11700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>11100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>10800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>7200</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>7200</v>
@@ -3114,223 +3382,253 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F59" s="3">
         <v>19700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>15000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>13200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>14600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>12100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>15700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>12800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>9700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>7000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F60" s="3">
         <v>39300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>34800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>37400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>39800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>30800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>32500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>40100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>39600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>43100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>46700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>39800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>35900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3">
         <v>33300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F61" s="3">
         <v>41600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>41800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>53600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>52200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>35300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>35700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>36500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>84500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>86900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>88100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>89200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>68000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>70800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F62" s="3">
         <v>19400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>8600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>9500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>10200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>10400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>9900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>8000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>4800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>132200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>122300</v>
+      </c>
+      <c r="F66" s="3">
         <v>110500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>95600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>110100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>110200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>84700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>87300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>95500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>142700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>148700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>149300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>143200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>117600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>117700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,49 +4116,55 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>65100</v>
+      </c>
+      <c r="F72" s="3">
         <v>56100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>58500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>52400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>46100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>39400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>33800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>30000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>20400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>18700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>17700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>13700</v>
-      </c>
-      <c r="O72" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q72" s="3">
         <v>1700</v>
@@ -3824,11 +4172,17 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,49 +4352,55 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>154700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>151000</v>
+      </c>
+      <c r="F76" s="3">
         <v>141700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>143800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>137100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>130200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>122900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>116200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>111600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>34200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>32400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>31500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>27600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>15700</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q76" s="3">
         <v>15700</v>
@@ -4036,11 +4408,17 @@
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>15700</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F81" s="3">
         <v>4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>6300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>6700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>12500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,7 +4634,7 @@
         <v>2600</v>
       </c>
       <c r="F83" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G83" s="3">
         <v>2600</v>
@@ -4245,10 +4643,10 @@
         <v>2600</v>
       </c>
       <c r="I83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K83" s="3">
         <v>2500</v>
@@ -4257,28 +4655,34 @@
         <v>2500</v>
       </c>
       <c r="M83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O83" s="3">
         <v>2200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F89" s="3">
         <v>17000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>20200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-11400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>9900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-7200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>8700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>6300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-12500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-27400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-10500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-31000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>2500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-17000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,52 +5562,58 @@
         <v>-7200</v>
       </c>
       <c r="E100" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-12000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>16600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-3600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>16700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>24000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>14300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>13200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F102" s="3">
         <v>8500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>KRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E8" s="3">
         <v>108700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>95800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>92700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>110000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>105400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>91300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>102700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>94500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>75700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>70400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>76300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>148800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>56300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>60200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>60000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>48400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>175400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E9" s="3">
         <v>66900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>57700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>63000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>80900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>71100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>63000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>72900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>66400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>53300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>102000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>41400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>43700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>43000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>35800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>132000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E10" s="3">
         <v>41800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>34300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>46800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,19 +1085,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1088,21 +1108,21 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-5000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1115,8 +1135,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E17" s="3">
         <v>95400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>83100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>87900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>102100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>107100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>95900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>84200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>97300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>82700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>71900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>68300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>69300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>130200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>55300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>58800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>57400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>47600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E18" s="3">
         <v>13300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,141 +1380,148 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1100</v>
       </c>
       <c r="I20" s="3">
         <v>1100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E21" s="3">
         <v>17300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1494,156 +1534,165 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>14000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2900</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E26" s="3">
         <v>10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2700</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E27" s="3">
         <v>10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1100</v>
       </c>
       <c r="I32" s="3">
         <v>-1100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E33" s="3">
         <v>10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E35" s="3">
         <v>10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,79 +2487,83 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E41" s="3">
         <v>18300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E42" s="3">
         <v>28000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2486,8 +2576,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2519,244 +2609,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E43" s="3">
         <v>32800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>43300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>23000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3">
         <v>22000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E44" s="3">
         <v>76300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>70900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>71200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>73300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>85500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>77300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>58500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>60200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>62200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>46100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>49000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>48600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>43700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>35400</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>38900</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>3400</v>
       </c>
       <c r="M45" s="3">
         <v>3400</v>
       </c>
       <c r="N45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O45" s="3">
         <v>6500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>2400</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E46" s="3">
         <v>161000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>141600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>123800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>124800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>134100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>133500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>102900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>106000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>79800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>79600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>73000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>61000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="3">
         <v>67500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,72 +2919,78 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>114100</v>
+        <v>113800</v>
       </c>
       <c r="E48" s="3">
         <v>114100</v>
       </c>
       <c r="F48" s="3">
+        <v>114100</v>
+      </c>
+      <c r="G48" s="3">
         <v>111300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>94300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>95000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>92100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>93500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>94000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>92900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>93900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>95500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>96600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>88500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>59000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>44000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E49" s="3">
         <v>3900</v>
@@ -2909,13 +3020,13 @@
         <v>3900</v>
       </c>
       <c r="N49" s="3">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="O49" s="3">
         <v>3100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>3100</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
         <v>8000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
         <v>21900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E54" s="3">
         <v>286900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>273300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>252200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>239500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>247200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>240400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>207600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>203500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>207100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>176900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>181100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>180700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>170800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>133400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3">
         <v>133300</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,72 +3403,76 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E57" s="3">
         <v>23400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>19100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -3347,288 +3481,303 @@
         <v>1000</v>
       </c>
       <c r="G58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
       </c>
       <c r="I58" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="J58" s="3">
         <v>1200</v>
       </c>
       <c r="K58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3">
         <v>7200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E59" s="3">
         <v>26400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>7000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E60" s="3">
         <v>50700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>44200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>37400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>43100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3">
         <v>33300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E61" s="3">
         <v>49100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>49300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>41600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>41800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>53600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>52200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>84500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>86900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>88100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>89200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>68000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>70800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E62" s="3">
         <v>21800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>4800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E66" s="3">
         <v>132200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>122300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>110500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>95600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>110100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>110200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>84700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>95500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>142700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>148700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>149300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>143200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>117600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3">
         <v>117700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E72" s="3">
         <v>68700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>65100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>56100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>58500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>46100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>39400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>1700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E76" s="3">
         <v>154700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>151000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>141700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>143800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>137100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>130200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>122900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>116200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>111600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3">
         <v>15700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E81" s="3">
         <v>10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,13 +4830,13 @@
         <v>2700</v>
       </c>
       <c r="E83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2600</v>
       </c>
       <c r="H83" s="3">
         <v>2600</v>
@@ -4649,7 +4848,7 @@
         <v>2600</v>
       </c>
       <c r="K83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L83" s="3">
         <v>2500</v>
@@ -4661,28 +4860,31 @@
         <v>2500</v>
       </c>
       <c r="O83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P83" s="3">
         <v>2200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E89" s="3">
         <v>16900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-800</v>
       </c>
       <c r="I91" s="3">
         <v>-800</v>
       </c>
       <c r="J91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-3200</v>
       </c>
       <c r="O94" s="3">
         <v>-3200</v>
       </c>
       <c r="P94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,13 +5550,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>16600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>24000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>14300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>13200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
     </row>
